--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001256.508364855</v>
+        <v>2999004.428653649</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2715225932658</v>
+        <v>83.56741318567356</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247499</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471482</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.64559995940135</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>192.8591723023324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>58.92805047991938</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316092</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620241</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039585</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235233266</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.56934869447</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.56934869447</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.30365008772</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E2" t="n">
-        <v>747.5153974894756</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265598</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995484</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734404</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758592</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811061</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999791</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387279</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332724</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601574</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927755</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064296</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431605</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199862</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471661</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266128</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501174</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883005</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539434</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.24380226932</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.24380226932</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.24380226932</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1732.487303338661</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1443.0701333017</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.080582403683</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518377</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395019</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571088</v>
+        <v>188.3660221513997</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591984</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339174</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153514</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009984</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,13 +5185,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5835,22 +5835,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6072,22 +6072,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,52 +6686,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7002,28 +7002,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48334686148155e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556013</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
@@ -26341,19 +26341,19 @@
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.609736506</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314498</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314496</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
         <v>11167.0322517935</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179354</v>
-      </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829147.2489274892</v>
+        <v>-829147.2489274899</v>
       </c>
       <c r="C6" t="n">
+        <v>499597.4968001028</v>
+      </c>
+      <c r="D6" t="n">
         <v>499597.4968001025</v>
       </c>
-      <c r="D6" t="n">
-        <v>499597.4968001022</v>
-      </c>
       <c r="E6" t="n">
-        <v>248372.5858534493</v>
+        <v>248337.8479280146</v>
       </c>
       <c r="F6" t="n">
-        <v>573785.0476608048</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="G6" t="n">
-        <v>573785.0476608047</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="H6" t="n">
-        <v>573785.0476608052</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="I6" t="n">
-        <v>573785.0476608051</v>
+        <v>573750.3097353698</v>
       </c>
       <c r="J6" t="n">
-        <v>356253.8452635278</v>
+        <v>356219.1073380919</v>
       </c>
       <c r="K6" t="n">
-        <v>573785.0476608053</v>
+        <v>573750.3097353696</v>
       </c>
       <c r="L6" t="n">
-        <v>573785.0476608052</v>
+        <v>573750.3097353696</v>
       </c>
       <c r="M6" t="n">
-        <v>488730.0197252933</v>
+        <v>488695.2817998579</v>
       </c>
       <c r="N6" t="n">
-        <v>573785.0476608049</v>
+        <v>573750.3097353695</v>
       </c>
       <c r="O6" t="n">
-        <v>573785.0476608052</v>
+        <v>573750.3097353698</v>
       </c>
       <c r="P6" t="n">
-        <v>573785.0476608052</v>
+        <v>573750.3097353696</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.423109903035247e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.423109903035247e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6045231484457</v>
+        <v>323.3086325560379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944278</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340.0882417040792</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>59.27847102149562</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>268.8242079902155</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468598</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090719</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944226</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.423109903035247e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>746.4857620875799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32011,7 +32011,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
         <v>790.8204499236507</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120937</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>615.1440500042467</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655553</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287603</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
